--- a/DbLayouts/L4-批次作業/BatxCheque.xlsx
+++ b/DbLayouts/L4-批次作業/BatxCheque.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A7DB2-4E81-483D-A432-ADB1772CD81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -460,7 +459,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -774,6 +773,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -785,14 +787,11 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -883,23 +882,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -935,23 +917,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1127,29 +1092,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="4" max="4" width="15.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
@@ -1161,8 +1126,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
         <v>80</v>
       </c>
@@ -1173,11 +1138,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:7" ht="33">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="12" t="s">
         <v>81</v>
       </c>
@@ -1189,10 +1154,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1200,10 +1165,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1211,10 +1176,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1222,10 +1187,10 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1357,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="113.4">
+    <row r="15" spans="1:7" ht="115.5">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1465,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32.4">
+    <row r="21" spans="1:7" ht="33">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1485,7 +1450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="48.6">
+    <row r="22" spans="1:7" ht="49.5">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1624,7 +1589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="64.8">
+    <row r="30" spans="1:7" ht="66">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -1640,7 +1605,7 @@
       <c r="E30" s="19">
         <v>1</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1729,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1737,10 +1702,10 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1764,26 +1729,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B95D7C-C6A6-47B1-8D9E-F32D8C28CF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>84</v>
       </c>
@@ -1860,7 +1825,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="31.2">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -1947,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>107</v>
@@ -1975,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>109</v>
